--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Symfony\Code\MyWEB-Effects03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7983DCE4-3851-40B8-986B-D049A1AF3D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A2732-E28B-4A37-95E6-32C6070581B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="79">
   <si>
     <t>Folders</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>AmazonBoxIsometric3D_CSSOnlyBox</t>
+  </si>
+  <si>
+    <t>Dashboard_Redesign</t>
   </si>
 </sst>
 </file>
@@ -639,27 +642,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J3"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="7.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.53125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -752,7 +755,7 @@
       </v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -816,7 +819,7 @@
       </v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
@@ -880,7 +883,7 @@
       </v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -900,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f t="shared" ref="G5:G65" si="0">_xlfn.CONCAT($B5,$A5,$C5,$A5,$D5)</f>
+        <f t="shared" ref="G5:G66" si="0">_xlfn.CONCAT($B5,$A5,$C5,$A5,$D5)</f>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/AnimatedTwitterSVGIcon/index.html" target="_blank"&gt;AnimatedTwitterSVGIcon&lt;/a&gt;
@@ -910,7 +913,7 @@
             title="</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" ref="H5:H65" si="1">_xlfn.CONCAT($A5,$E5,$A5,$F5)</f>
+        <f t="shared" ref="H5:H66" si="1">_xlfn.CONCAT($A5,$E5,$A5,$F5)</f>
         <v xml:space="preserve">AnimatedTwitterSVGIcon"
             width="460"
             height="315"
@@ -924,7 +927,7 @@
       </v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I65" si="2">_xlfn.CONCAT($G5,$H5)</f>
+        <f t="shared" ref="I5:I66" si="2">_xlfn.CONCAT($G5,$H5)</f>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
         &lt;a href="src/AnimatedTwitterSVGIcon/index.html" target="_blank"&gt;AnimatedTwitterSVGIcon&lt;/a&gt;
@@ -944,7 +947,7 @@
       </v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1008,7 +1011,7 @@
       </v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1075,7 @@
       </v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1139,7 @@
       </v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1203,7 @@
       </v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1267,7 @@
       </v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1331,7 @@
       </v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1395,7 @@
       </v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1456,7 +1459,7 @@
       </v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1523,7 @@
       </v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1587,7 @@
       </v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1648,7 +1651,7 @@
       </v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1712,7 +1715,7 @@
       </v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1776,7 +1779,7 @@
       </v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1843,7 @@
       </v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -1904,7 +1907,7 @@
       </v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -1968,7 +1971,7 @@
       </v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -2032,26 +2035,90 @@
       </v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/Dashboard_Redesign/index.html" target="_blank"&gt;Dashboard_Redesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Dashboard_Redesign"
+            width="460"
+            height="315"
+            src="src/Dashboard_Redesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">&lt;section&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;a href="src/Dashboard_Redesign/index.html" target="_blank"&gt;Dashboard_Redesign&lt;/a&gt;
+        &lt;hr class="rounded" /&gt;
+        &lt;div&gt;
+          &lt;iframe
+            title="Dashboard_Redesign"
+            width="460"
+            height="315"
+            src="src/Dashboard_Redesign/index.html"
+            frameborder="0"
+            allow="accelerometer; autoplay; encrypted-media; gyroscope; picture-in-picture"
+            allowfullscreen
+          &gt;&lt;/iframe&gt;
+        &lt;/div&gt;
+      &lt;/section&gt;
+      </v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="str">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2061,7 +2128,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H24" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">DesktopOnly"
             width="460"
@@ -2075,7 +2142,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I24" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2096,26 +2163,26 @@
       </v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="3" t="str">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2125,7 +2192,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H25" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">DowpdownCardJavascript"
             width="460"
@@ -2139,7 +2206,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I25" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2160,26 +2227,26 @@
       </v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="3" t="str">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2189,7 +2256,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H26" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Facebook_LandingPage"
             width="460"
@@ -2203,7 +2270,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="I26" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2224,26 +2291,26 @@
       </v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3" t="str">
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2253,7 +2320,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H27" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">fontsGoogleEffects"
             width="460"
@@ -2267,7 +2334,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I27" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2288,26 +2355,26 @@
       </v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="3" t="str">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2317,7 +2384,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H27" s="3" t="str">
+      <c r="H28" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlassCard"
             width="460"
@@ -2331,7 +2398,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I28" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2352,26 +2419,26 @@
       </v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="str">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2381,7 +2448,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H28" s="3" t="str">
+      <c r="H29" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlassmorphismCards_user"
             width="460"
@@ -2395,7 +2462,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I29" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2416,26 +2483,26 @@
       </v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="str">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2445,7 +2512,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H29" s="3" t="str">
+      <c r="H30" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlassmorphismIconIndicator"
             width="460"
@@ -2459,7 +2526,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I30" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2480,26 +2547,26 @@
       </v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3" t="str">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2509,7 +2576,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H30" s="3" t="str">
+      <c r="H31" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlowingCheckBoxWIthIcon"
             width="460"
@@ -2523,7 +2590,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I30" s="7" t="str">
+      <c r="I31" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2544,26 +2611,26 @@
       </v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="str">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2573,7 +2640,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H31" s="3" t="str">
+      <c r="H32" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlowingLoader2"
             width="460"
@@ -2587,7 +2654,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I31" s="7" t="str">
+      <c r="I32" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2608,26 +2675,26 @@
       </v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="str">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2637,7 +2704,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H32" s="3" t="str">
+      <c r="H33" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GlowingToNeumorphism"
             width="460"
@@ -2651,7 +2718,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I32" s="7" t="str">
+      <c r="I33" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2672,26 +2739,26 @@
       </v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="str">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2701,7 +2768,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H33" s="3" t="str">
+      <c r="H34" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">GoogleMap"
             width="460"
@@ -2715,7 +2782,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I33" s="7" t="str">
+      <c r="I34" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2736,26 +2803,26 @@
       </v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="3" t="str">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2765,7 +2832,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H34" s="3" t="str">
+      <c r="H35" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">InstagramPostCard"
             width="460"
@@ -2779,7 +2846,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I34" s="7" t="str">
+      <c r="I35" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2800,26 +2867,26 @@
       </v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3" t="str">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2829,7 +2896,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H35" s="3" t="str">
+      <c r="H36" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">IsometricIconHoverEffects"
             width="460"
@@ -2843,7 +2910,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I35" s="7" t="str">
+      <c r="I36" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2864,26 +2931,26 @@
       </v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="3" t="str">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2893,7 +2960,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H36" s="3" t="str">
+      <c r="H37" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">KFC"
             width="460"
@@ -2907,7 +2974,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I36" s="7" t="str">
+      <c r="I37" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2928,26 +2995,26 @@
       </v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="3" t="str">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2957,7 +3024,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H37" s="3" t="str">
+      <c r="H38" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">LayeredImageHoverEffects"
             width="460"
@@ -2971,7 +3038,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I37" s="7" t="str">
+      <c r="I38" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -2992,26 +3059,26 @@
       </v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3" t="str">
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3021,7 +3088,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H38" s="3" t="str">
+      <c r="H39" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">LightBulb"
             width="460"
@@ -3035,7 +3102,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I38" s="7" t="str">
+      <c r="I39" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3056,26 +3123,26 @@
       </v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="3" t="str">
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3085,7 +3152,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H39" s="3" t="str">
+      <c r="H40" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">LiquidText_Remake"
             width="460"
@@ -3099,7 +3166,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I39" s="7" t="str">
+      <c r="I40" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3120,26 +3187,26 @@
       </v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="3" t="str">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3149,7 +3216,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H40" s="3" t="str">
+      <c r="H41" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">MenuHoverEffects"
             width="460"
@@ -3163,7 +3230,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I40" s="7" t="str">
+      <c r="I41" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3184,26 +3251,26 @@
       </v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="3" t="str">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3213,7 +3280,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H41" s="3" t="str">
+      <c r="H42" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">MusicPlayer"
             width="460"
@@ -3227,7 +3294,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I42" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3248,26 +3315,26 @@
       </v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="3" t="str">
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3277,7 +3344,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H42" s="3" t="str">
+      <c r="H43" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">NeumorphismLoadingAnimation"
             width="460"
@@ -3291,7 +3358,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I42" s="7" t="str">
+      <c r="I43" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3312,26 +3379,26 @@
       </v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="3" t="str">
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3341,7 +3408,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H43" s="3" t="str">
+      <c r="H44" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">NeumorphismLoadingAnimation2"
             width="460"
@@ -3355,7 +3422,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I43" s="7" t="str">
+      <c r="I44" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3376,26 +3443,26 @@
       </v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3" t="str">
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3405,7 +3472,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H44" s="3" t="str">
+      <c r="H45" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">OpenCloseTextTransition"
             width="460"
@@ -3419,7 +3486,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I44" s="7" t="str">
+      <c r="I45" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3440,26 +3507,26 @@
       </v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="3" t="str">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3469,7 +3536,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H45" s="3" t="str">
+      <c r="H46" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Particle.js_Effect"
             width="460"
@@ -3483,7 +3550,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I46" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3504,26 +3571,26 @@
       </v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="3" t="str">
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3533,7 +3600,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H46" s="3" t="str">
+      <c r="H47" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">PaymentFormDesign"
             width="460"
@@ -3547,7 +3614,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I46" s="7" t="str">
+      <c r="I47" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3568,26 +3635,26 @@
       </v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="str">
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3597,7 +3664,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H47" s="3" t="str">
+      <c r="H48" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">PixelArtCSS_Monalisa"
             width="460"
@@ -3611,7 +3678,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I47" s="7" t="str">
+      <c r="I48" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3632,26 +3699,26 @@
       </v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="3" t="str">
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3661,7 +3728,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H48" s="3" t="str">
+      <c r="H49" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">QuickCSSButtonHoverEffects"
             width="460"
@@ -3675,7 +3742,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I48" s="7" t="str">
+      <c r="I49" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3696,26 +3763,26 @@
       </v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3" t="str">
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3725,7 +3792,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H49" s="3" t="str">
+      <c r="H50" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">QuickCSSTricks_Shadow"
             width="460"
@@ -3739,7 +3806,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I49" s="7" t="str">
+      <c r="I50" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3760,26 +3827,26 @@
       </v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="3" t="str">
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3789,7 +3856,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H50" s="3" t="str">
+      <c r="H51" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">radioButtons_innovative"
             width="460"
@@ -3803,7 +3870,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I50" s="7" t="str">
+      <c r="I51" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3824,26 +3891,26 @@
       </v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3" t="str">
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3853,7 +3920,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H51" s="3" t="str">
+      <c r="H52" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Remake_VideoInTextBackground02"
             width="460"
@@ -3867,7 +3934,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I51" s="7" t="str">
+      <c r="I52" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3888,26 +3955,26 @@
       </v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="str">
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3917,7 +3984,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H52" s="3" t="str">
+      <c r="H53" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Responsive"
             width="460"
@@ -3931,7 +3998,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I52" s="7" t="str">
+      <c r="I53" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3952,26 +4019,26 @@
       </v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="3" t="str">
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -3981,7 +4048,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H53" s="3" t="str">
+      <c r="H54" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">ScrollImageTopToBottom"
             width="460"
@@ -3995,7 +4062,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I53" s="7" t="str">
+      <c r="I54" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4016,26 +4083,26 @@
       </v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="3" t="str">
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4045,7 +4112,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H54" s="3" t="str">
+      <c r="H55" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SidebarNavigationCurveOutside"
             width="460"
@@ -4059,7 +4126,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I54" s="7" t="str">
+      <c r="I55" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4080,26 +4147,26 @@
       </v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="3" t="str">
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4109,7 +4176,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H55" s="3" t="str">
+      <c r="H56" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SimpleParallax"
             width="460"
@@ -4123,7 +4190,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I55" s="7" t="str">
+      <c r="I56" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4144,26 +4211,26 @@
       </v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="3" t="str">
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4173,7 +4240,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H56" s="3" t="str">
+      <c r="H57" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SplitVideoOnScroll"
             width="460"
@@ -4187,7 +4254,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I56" s="7" t="str">
+      <c r="I57" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4208,26 +4275,26 @@
       </v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="3" t="str">
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4237,7 +4304,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H57" s="3" t="str">
+      <c r="H58" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SuzukiBike_WebsiteLandingPage"
             width="460"
@@ -4251,7 +4318,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I57" s="7" t="str">
+      <c r="I58" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4272,26 +4339,26 @@
       </v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3" t="str">
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4301,7 +4368,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H58" s="3" t="str">
+      <c r="H59" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SwiperCardSlider"
             width="460"
@@ -4315,7 +4382,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I58" s="7" t="str">
+      <c r="I59" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4336,26 +4403,26 @@
       </v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3" t="str">
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4365,7 +4432,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H59" s="3" t="str">
+      <c r="H60" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">TypingMenuItemHoverEffects"
             width="460"
@@ -4379,7 +4446,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I59" s="7" t="str">
+      <c r="I60" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4400,26 +4467,26 @@
       </v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3" t="str">
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4429,7 +4496,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H60" s="3" t="str">
+      <c r="H61" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">UserCardHoverEffects"
             width="460"
@@ -4443,7 +4510,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I60" s="7" t="str">
+      <c r="I61" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4464,26 +4531,26 @@
       </v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="3" t="str">
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4493,7 +4560,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H61" s="3" t="str">
+      <c r="H62" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">WaterDrop"
             width="460"
@@ -4507,7 +4574,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I61" s="7" t="str">
+      <c r="I62" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4528,26 +4595,26 @@
       </v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3" t="str">
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4557,7 +4624,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H62" s="3" t="str">
+      <c r="H63" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">WavyLoader"
             width="460"
@@ -4571,7 +4638,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I62" s="7" t="str">
+      <c r="I63" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4592,26 +4659,26 @@
       </v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="3" t="str">
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4621,7 +4688,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H63" s="3" t="str">
+      <c r="H64" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">WebsiteLayout_Responsive"
             width="460"
@@ -4635,7 +4702,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I63" s="7" t="str">
+      <c r="I64" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4656,26 +4723,26 @@
       </v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3" t="str">
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4685,7 +4752,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H64" s="3" t="str">
+      <c r="H65" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">WebsiteVideoMask"
             width="460"
@@ -4699,7 +4766,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I65" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4720,26 +4787,26 @@
       </v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="3" t="str">
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;section&gt;
         &lt;hr class="rounded" /&gt;
@@ -4749,7 +4816,7 @@
           &lt;iframe
             title="</v>
       </c>
-      <c r="H65" s="3" t="str">
+      <c r="H66" s="3" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">withClouds"
             width="460"
@@ -4763,7 +4830,7 @@
       &lt;/section&gt;
       </v>
       </c>
-      <c r="I65" s="7" t="str">
+      <c r="I66" s="7" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">&lt;section&gt;
         &lt;hr class="rounded" /&gt;
